--- a/biology/Botanique/Cucumis/Cucumis.xlsx
+++ b/biology/Botanique/Cucumis/Cucumis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Cucumis est un genre de plantes à fleurs de la famille des Cucurbitacées. Il comprend une soixantaine[2] d'espèces dont deux sont principalement cultivées et ont une grande importance économique :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Cucumis est un genre de plantes à fleurs de la famille des Cucurbitacées. Il comprend une soixantaine d'espèces dont deux sont principalement cultivées et ont une grande importance économique :
 Cucumis melo L., le melon cultivé et de nombreuses espèces sauvages,
 Cucumis sativus L., le concombre (et le cornichon).
 Deux autres sont également cultivées dans les pays chauds :
@@ -518,9 +530,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (23 sept. 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (23 sept. 2014) :
 Cucumis anguria L.
 Cucumis dipsaceus Ehrenb. ex Spach
 Cucumis ficifolius A. Rich.
@@ -529,7 +543,7 @@
 Cucumis myriocarpus E. Mey. ex Naudin
 Cucumis prophetarum L.
 Cucumis sativus L.
-Selon NCBI  (23 sept. 2014)[3] :
+Selon NCBI  (23 sept. 2014) :
 Cucumis acidus
 Cucumis aculeatus
 Cucumis africanus
@@ -589,7 +603,7 @@
 Cucumis variabilis
 Cucumis x hytivus
 Cucumis zeyherii
-Selon Tropicos                                           (23 sept. 2014)[4] :
+Selon Tropicos                                           (23 sept. 2014) :
 Cucumis abyssinicus A. Rich.
 Cucumis acidus Jacq.
 Cucumis aculeatus Cogn.
